--- a/FirstProject/Excelfile/Book1.xlsx
+++ b/FirstProject/Excelfile/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheiksumon/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheiksumon/git/https:/github.com/sumon2378/FirstProject.git/FirstProject/Excelfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D126EF2-DD57-074B-82DA-E39BDF3BA6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B863A-F96E-0F47-BE01-9EDA5B921D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{4862F56E-C604-7643-9725-A8BD9E731B62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>First Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>sumonbd64ss@gmail.com</t>
   </si>
   <si>
-    <t>jamaica</t>
-  </si>
-  <si>
     <t>Nesie</t>
   </si>
   <si>
@@ -87,6 +84,30 @@
   </si>
   <si>
     <t>woodside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rashedul </t>
+  </si>
+  <si>
+    <t>hasan</t>
+  </si>
+  <si>
+    <t>rashedulhasab5h@gmail.com</t>
+  </si>
+  <si>
+    <t>soniy</t>
+  </si>
+  <si>
+    <t>fnu</t>
+  </si>
+  <si>
+    <t>jhsjhgf@yahoo.com</t>
+  </si>
+  <si>
+    <t>bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88-35 138th st </t>
   </si>
 </sst>
 </file>
@@ -449,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CBACA4-C971-9E46-ABC9-0452AEDABD1A}">
-  <dimension ref="B1:G4"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,15 +522,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -518,18 +539,18 @@
         <v>437747754</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -538,10 +559,50 @@
         <v>6788769876</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2345234234</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>4653238787</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -549,6 +610,8 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B89CDDE5-8DBE-3948-9023-9BFB9AF8533C}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{B30B98DC-F3F3-7B40-9A2A-94C568DF3F5A}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{B509E931-3E40-0148-8A42-1006A715A033}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{53A7A802-922C-0B4E-B06E-23755E5948E7}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{4E2B4C6B-5E87-4343-959C-D96AC10CD0FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
